--- a/xlsx/巴哈马群岛_intext.xlsx
+++ b/xlsx/巴哈马群岛_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
   <si>
     <t>巴哈马群岛</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>巴哈馬國旗</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_巴哈马群岛</t>
+    <t>巴哈马国旗</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_巴哈马群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E5%9B%BD%E5%BE%BD</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%EF%BC%8C%E5%90%91%E5%89%8D%E8%BF%9B</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%8E%8B%E5%AE%A4</t>
   </si>
   <si>
-    <t>英國王室</t>
+    <t>英国王室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%8C%E6%AD%8C</t>
   </si>
   <si>
-    <t>頌歌</t>
+    <t>颂歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%91%E5%A5%B3%E7%8E%8B</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E9%A8%B7_(%E5%B7%B4%E5%93%88%E9%A6%AC)</t>
   </si>
   <si>
-    <t>拿騷 (巴哈馬)</t>
+    <t>拿骚 (巴哈马)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%94%BF%E5%BA%9C%E6%89%80%E5%9C%A8%E5%9C%B0</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -197,37 +197,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
+    <t>单一制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E5%88%B6</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E5%A5%B3%E7%8E%8B</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC%E7%B8%BD%E7%9D%A3</t>
   </si>
   <si>
-    <t>巴哈馬總督</t>
+    <t>巴哈马总督</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E6%80%BB%E7%90%86</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -317,19 +317,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A6%AC%E5%85%83</t>
   </si>
   <si>
-    <t>巴哈馬元</t>
+    <t>巴哈马元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.bs</t>
@@ -353,21 +353,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際冠碼</t>
+    <t>国际冠码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>国际电话区号列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -383,13 +380,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%AC%E5%8D%A1%E9%9B%85%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>廬卡雅群島</t>
+    <t>庐卡雅群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%9C%8B</t>
   </si>
   <si>
-    <t>島國</t>
+    <t>岛国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%9B%E5%B1%BF</t>
@@ -419,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%A4%81%E5%B3%B6%E7%BE%A4</t>
   </si>
   <si>
-    <t>佛羅里達礁島群</t>
+    <t>佛罗里达礁岛群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A%E5%B2%9B</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E9%81%94%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>百慕達群島</t>
+    <t>百慕达群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國獨立革命</t>
+    <t>美国独立革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
@@ -509,25 +506,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8C%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>南北戰爭</t>
+    <t>南北战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E6%A5%AD</t>
   </si>
   <si>
-    <t>旅遊業</t>
+    <t>旅游业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2</t>
   </si>
   <si>
-    <t>君主立憲</t>
+    <t>君主立宪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC%E5%90%9B%E4%B8%BB</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>英國君主</t>
+    <t>英国君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%86%B1%E5%B8%B6%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>亞熱帶氣候</t>
+    <t>亚热带气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%9B%9E%E5%BD%92%E7%BA%BF</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9D%E6%B0%8F</t>
   </si>
   <si>
-    <t>攝氏</t>
+    <t>摄氏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%AB%E7%B1%B3</t>
@@ -581,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E8%92%82%E6%96%AF%E5%BA%A6%E5%81%87%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>亞特蘭蒂斯度假中心</t>
+    <t>亚特兰蒂斯度假中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/International_Monetary_Fund</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%EF%BC%8D%E5%B7%B4%E5%93%88%E9%A6%AC%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國－巴哈馬關係</t>
+    <t>中国－巴哈马关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:America</t>
@@ -629,9 +626,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
   </si>
   <si>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -755,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -773,7 +767,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -809,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -821,7 +815,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -833,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -851,25 +845,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -881,19 +875,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -911,31 +905,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -959,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -977,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -989,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1049,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%BA%B3</t>
@@ -1133,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1193,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -1211,13 +1205,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%B9%B2%E8%BE%BE</t>
@@ -1229,9 +1223,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
   </si>
   <si>
@@ -1253,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -1283,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -1301,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -1343,15 +1334,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%9B%BC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
   </si>
   <si>
@@ -1397,7 +1382,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%8D%94%E5%A2%83%E5%9F%9F</t>
   </si>
   <si>
-    <t>國協境域</t>
+    <t>国协境域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1409,13 +1394,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E7%93%9C%E5%92%8C%E5%B7%B4%E5%B8%83%E9%81%94%E5%90%9B%E4%B8%BB</t>
   </si>
   <si>
-    <t>安提瓜和巴布達君主</t>
+    <t>安提瓜和巴布达君主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>紐西蘭王國</t>
+    <t>纽西兰王国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Monarchy_in_the_Cook_Islands</t>
@@ -1433,7 +1418,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>錫蘭自治領</t>
+    <t>锡兰自治领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E%E8%87%AA%E6%B2%BB%E9%A2%86</t>
@@ -1499,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%8A%AC%E8%98%AD%E8%87%AA%E6%B2%BB%E9%A0%98</t>
   </si>
   <si>
-    <t>紐芬蘭自治領</t>
+    <t>纽芬兰自治领</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Federation_of_Nigeria</t>
@@ -1511,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅德西亞</t>
+    <t>罗德西亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sierra_Leone_(Commonwealth_realm)</t>
@@ -1595,9 +1580,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
   </si>
   <si>
@@ -1613,9 +1595,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1625,7 +1604,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1667,9 +1646,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -1877,9 +1853,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
@@ -1919,9 +1892,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9</t>
   </si>
   <si>
@@ -1997,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2033,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2081,7 +2051,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2105,13 +2075,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%93%88%E9%A9%AC</t>
@@ -2871,7 +2841,7 @@
         <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>4</v>
@@ -4231,7 +4201,7 @@
         <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>159</v>
@@ -4257,10 +4227,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62" t="s">
         <v>117</v>
-      </c>
-      <c r="F62" t="s">
-        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4286,10 +4256,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" t="s">
         <v>119</v>
-      </c>
-      <c r="F63" t="s">
-        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4315,10 +4285,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
         <v>121</v>
-      </c>
-      <c r="F64" t="s">
-        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4344,10 +4314,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4373,10 +4343,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4402,10 +4372,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
         <v>127</v>
-      </c>
-      <c r="F67" t="s">
-        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4431,10 +4401,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>128</v>
+      </c>
+      <c r="F68" t="s">
         <v>129</v>
-      </c>
-      <c r="F68" t="s">
-        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4460,10 +4430,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" t="s">
         <v>131</v>
-      </c>
-      <c r="F69" t="s">
-        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -4489,10 +4459,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" t="s">
         <v>133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4518,10 +4488,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4547,10 +4517,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4576,10 +4546,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>3</v>
@@ -4605,10 +4575,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4634,10 +4604,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4663,10 +4633,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4692,10 +4662,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>146</v>
+      </c>
+      <c r="F77" t="s">
         <v>147</v>
-      </c>
-      <c r="F77" t="s">
-        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4721,10 +4691,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4750,10 +4720,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>150</v>
+      </c>
+      <c r="F79" t="s">
         <v>151</v>
-      </c>
-      <c r="F79" t="s">
-        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4779,10 +4749,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F80" t="s">
         <v>153</v>
-      </c>
-      <c r="F80" t="s">
-        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4808,10 +4778,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>154</v>
+      </c>
+      <c r="F81" t="s">
         <v>155</v>
-      </c>
-      <c r="F81" t="s">
-        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -4837,10 +4807,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>156</v>
+      </c>
+      <c r="F82" t="s">
         <v>157</v>
-      </c>
-      <c r="F82" t="s">
-        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4866,10 +4836,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" t="s">
         <v>159</v>
-      </c>
-      <c r="F83" t="s">
-        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4895,10 +4865,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F84" t="s">
         <v>161</v>
-      </c>
-      <c r="F84" t="s">
-        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4924,10 +4894,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>162</v>
+      </c>
+      <c r="F85" t="s">
         <v>163</v>
-      </c>
-      <c r="F85" t="s">
-        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4953,10 +4923,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4982,10 +4952,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -5011,10 +4981,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5040,10 +5010,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5069,10 +5039,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5127,10 +5097,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5156,10 +5126,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5185,10 +5155,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5214,10 +5184,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5243,10 +5213,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5272,10 +5242,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5301,10 +5271,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5330,10 +5300,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5359,10 +5329,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5388,10 +5358,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5417,10 +5387,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -5446,10 +5416,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F103" t="s">
         <v>197</v>
-      </c>
-      <c r="F103" t="s">
-        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -5475,10 +5445,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F104" t="s">
         <v>199</v>
-      </c>
-      <c r="F104" t="s">
-        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5504,10 +5474,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" t="s">
         <v>201</v>
-      </c>
-      <c r="F105" t="s">
-        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -5533,10 +5503,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="G106" t="n">
         <v>4</v>
@@ -5562,10 +5532,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5591,10 +5561,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5620,10 +5590,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5649,10 +5619,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5678,10 +5648,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -5707,10 +5677,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5736,10 +5706,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5765,10 +5735,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5794,10 +5764,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5823,10 +5793,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5852,10 +5822,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5881,10 +5851,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>4</v>
@@ -5910,10 +5880,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -5939,10 +5909,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5968,10 +5938,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5997,10 +5967,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -6026,10 +5996,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -6055,10 +6025,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6084,10 +6054,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6113,10 +6083,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6142,10 +6112,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>4</v>
@@ -6171,10 +6141,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6200,10 +6170,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6229,10 +6199,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F130" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6258,10 +6228,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6287,10 +6257,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6316,10 +6286,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6345,10 +6315,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -6374,10 +6344,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>4</v>
@@ -6403,10 +6373,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6432,10 +6402,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6461,10 +6431,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6490,10 +6460,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6519,10 +6489,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6548,10 +6518,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6577,10 +6547,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6606,10 +6576,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6635,10 +6605,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6664,10 +6634,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6693,10 +6663,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6722,10 +6692,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6751,10 +6721,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6780,10 +6750,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6809,10 +6779,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6838,10 +6808,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6867,10 +6837,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6896,10 +6866,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6925,10 +6895,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6954,10 +6924,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6983,10 +6953,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7012,10 +6982,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7041,10 +7011,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7070,10 +7040,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7099,10 +7069,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7128,10 +7098,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7157,10 +7127,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7186,10 +7156,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -7215,10 +7185,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7244,10 +7214,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7273,10 +7243,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7302,10 +7272,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7331,10 +7301,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7360,10 +7330,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>5</v>
@@ -7389,10 +7359,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7418,10 +7388,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7447,10 +7417,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7476,10 +7446,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7505,10 +7475,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7534,10 +7504,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7563,10 +7533,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7592,10 +7562,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7621,10 +7591,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -7650,10 +7620,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7679,10 +7649,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7708,10 +7678,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7737,10 +7707,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7766,10 +7736,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7795,10 +7765,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7824,10 +7794,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7853,10 +7823,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7882,10 +7852,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7911,10 +7881,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7940,10 +7910,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -7969,10 +7939,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -7998,10 +7968,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>
@@ -8027,10 +7997,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>3</v>
@@ -8056,10 +8026,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8085,10 +8055,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F194" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G194" t="n">
         <v>3</v>
@@ -8114,10 +8084,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F195" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8143,10 +8113,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F196" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -8172,10 +8142,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8201,10 +8171,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -8230,10 +8200,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -8259,10 +8229,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8288,10 +8258,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8317,10 +8287,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8346,10 +8316,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8375,10 +8345,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8404,10 +8374,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8433,10 +8403,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8462,10 +8432,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8491,10 +8461,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -8520,10 +8490,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8549,10 +8519,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>2</v>
@@ -8578,10 +8548,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8607,13 +8577,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8636,10 +8606,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8665,10 +8635,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8694,10 +8664,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8723,10 +8693,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8752,10 +8722,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8781,10 +8751,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8810,10 +8780,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8839,10 +8809,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8868,10 +8838,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8897,10 +8867,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8926,10 +8896,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8955,10 +8925,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8984,10 +8954,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F225" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9013,10 +8983,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9042,10 +9012,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9071,10 +9041,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9100,10 +9070,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9129,10 +9099,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F230" t="s">
-        <v>444</v>
+        <v>288</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9158,10 +9128,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F231" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9187,10 +9157,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F232" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9216,10 +9186,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F233" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9245,10 +9215,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F234" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9274,10 +9244,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F235" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9303,10 +9273,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9332,10 +9302,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9361,10 +9331,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9390,10 +9360,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9419,10 +9389,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -9448,10 +9418,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G241" t="n">
         <v>24</v>
@@ -9477,10 +9447,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9506,10 +9476,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9535,10 +9505,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9564,10 +9534,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9593,10 +9563,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G246" t="n">
         <v>3</v>
@@ -9622,10 +9592,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9651,10 +9621,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9680,10 +9650,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9709,10 +9679,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9738,10 +9708,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9767,10 +9737,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9796,10 +9766,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9825,10 +9795,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9854,10 +9824,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9883,10 +9853,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F256" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9912,10 +9882,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F257" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9941,10 +9911,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F258" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9970,10 +9940,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F259" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9999,10 +9969,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F260" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10028,10 +9998,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10057,10 +10027,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10086,10 +10056,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10115,10 +10085,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10144,10 +10114,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10173,10 +10143,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10202,10 +10172,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10231,10 +10201,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10260,10 +10230,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10289,10 +10259,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10318,10 +10288,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10347,10 +10317,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>210</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10376,10 +10346,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10405,10 +10375,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10434,10 +10404,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>250</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10463,10 +10433,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10492,10 +10462,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10521,10 +10491,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10550,10 +10520,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10579,10 +10549,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10608,10 +10578,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10637,10 +10607,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10666,10 +10636,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10695,10 +10665,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>256</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10724,10 +10694,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10753,10 +10723,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10782,10 +10752,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10811,10 +10781,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10840,10 +10810,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -10869,10 +10839,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10898,10 +10868,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10927,10 +10897,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10956,10 +10926,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10985,10 +10955,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11014,10 +10984,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11043,10 +11013,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G296" t="n">
         <v>2</v>
@@ -11072,10 +11042,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F297" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11101,10 +11071,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F298" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G298" t="n">
         <v>6</v>
@@ -11130,10 +11100,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F299" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11159,10 +11129,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F300" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11188,10 +11158,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F301" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11217,10 +11187,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F302" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11246,10 +11216,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F303" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11275,10 +11245,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F304" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11304,10 +11274,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F305" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11333,10 +11303,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F306" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11362,10 +11332,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F307" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11391,10 +11361,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F308" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11420,10 +11390,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F309" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11449,10 +11419,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F310" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11478,10 +11448,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F311" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11507,10 +11477,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F312" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11536,10 +11506,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F313" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11565,10 +11535,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F314" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11594,10 +11564,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F315" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11623,10 +11593,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F316" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11652,10 +11622,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F317" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11681,10 +11651,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F318" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11710,10 +11680,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F319" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11739,10 +11709,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F320" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11768,10 +11738,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F321" t="s">
-        <v>620</v>
+        <v>262</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11797,10 +11767,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F322" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11826,10 +11796,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F323" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11855,10 +11825,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F324" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11884,10 +11854,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F325" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11913,10 +11883,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F326" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11942,10 +11912,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F327" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11971,10 +11941,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F328" t="s">
-        <v>634</v>
+        <v>390</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12000,10 +11970,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F329" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12029,10 +11999,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F330" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12058,10 +12028,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12087,10 +12057,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12116,10 +12086,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12145,10 +12115,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12174,10 +12144,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12203,10 +12173,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12232,10 +12202,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12261,10 +12231,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12290,10 +12260,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12319,10 +12289,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12348,10 +12318,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12377,10 +12347,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12406,10 +12376,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F343" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12435,10 +12405,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12464,10 +12434,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F345" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12493,10 +12463,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F346" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12522,10 +12492,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F347" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12551,10 +12521,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12580,10 +12550,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12609,10 +12579,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12638,10 +12608,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12667,10 +12637,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12696,10 +12666,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12725,10 +12695,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12754,10 +12724,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
         <v>2</v>
@@ -12783,10 +12753,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
         <v>3</v>
@@ -12812,10 +12782,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12841,10 +12811,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12870,10 +12840,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12899,10 +12869,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12928,10 +12898,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12957,10 +12927,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>7</v>
@@ -12986,10 +12956,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F363" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
